--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.962183494685271</v>
+        <v>54.82987066666667</v>
       </c>
       <c r="H2">
-        <v>0.962183494685271</v>
+        <v>164.489612</v>
       </c>
       <c r="I2">
-        <v>0.7610194533250876</v>
+        <v>0.9762630652055824</v>
       </c>
       <c r="J2">
-        <v>0.7610194533250876</v>
+        <v>0.9762630652055824</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N2">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P2">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q2">
-        <v>101.5264382077486</v>
+        <v>6169.094731627968</v>
       </c>
       <c r="R2">
-        <v>101.5264382077486</v>
+        <v>55521.85258465172</v>
       </c>
       <c r="S2">
-        <v>0.2393046645626523</v>
+        <v>0.3197567086793456</v>
       </c>
       <c r="T2">
-        <v>0.2393046645626523</v>
+        <v>0.3197567086793456</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.962183494685271</v>
+        <v>54.82987066666667</v>
       </c>
       <c r="H3">
-        <v>0.962183494685271</v>
+        <v>164.489612</v>
       </c>
       <c r="I3">
-        <v>0.7610194533250876</v>
+        <v>0.9762630652055824</v>
       </c>
       <c r="J3">
-        <v>0.7610194533250876</v>
+        <v>0.9762630652055824</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N3">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P3">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q3">
-        <v>102.160308802768</v>
+        <v>5829.208420775731</v>
       </c>
       <c r="R3">
-        <v>102.160308802768</v>
+        <v>52462.87578698158</v>
       </c>
       <c r="S3">
-        <v>0.2407987403206028</v>
+        <v>0.3021397109169208</v>
       </c>
       <c r="T3">
-        <v>0.2407987403206028</v>
+        <v>0.3021397109169209</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.962183494685271</v>
+        <v>54.82987066666667</v>
       </c>
       <c r="H4">
-        <v>0.962183494685271</v>
+        <v>164.489612</v>
       </c>
       <c r="I4">
-        <v>0.7610194533250876</v>
+        <v>0.9762630652055824</v>
       </c>
       <c r="J4">
-        <v>0.7610194533250876</v>
+        <v>0.9762630652055824</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>123.864437369458</v>
+        <v>124.6916553333333</v>
       </c>
       <c r="N4">
-        <v>123.864437369458</v>
+        <v>374.074966</v>
       </c>
       <c r="O4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="P4">
-        <v>0.3691312320788105</v>
+        <v>0.3629827433189773</v>
       </c>
       <c r="Q4">
-        <v>119.18031721537</v>
+        <v>6836.827335139244</v>
       </c>
       <c r="R4">
-        <v>119.18031721537</v>
+        <v>61531.44601625321</v>
       </c>
       <c r="S4">
-        <v>0.2809160484418324</v>
+        <v>0.3543666456093159</v>
       </c>
       <c r="T4">
-        <v>0.2809160484418324</v>
+        <v>0.354366645609316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.302151458227229</v>
+        <v>0.9891043333333333</v>
       </c>
       <c r="H5">
-        <v>0.302151458227229</v>
+        <v>2.967313</v>
       </c>
       <c r="I5">
-        <v>0.2389805466749125</v>
+        <v>0.01761131325912771</v>
       </c>
       <c r="J5">
-        <v>0.2389805466749125</v>
+        <v>0.01761131325912771</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.516711488548</v>
+        <v>112.513392</v>
       </c>
       <c r="N5">
-        <v>105.516711488548</v>
+        <v>337.540176</v>
       </c>
       <c r="O5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="P5">
-        <v>0.3144527561247868</v>
+        <v>0.3275312977368564</v>
       </c>
       <c r="Q5">
-        <v>31.88202824360658</v>
+        <v>111.287483585232</v>
       </c>
       <c r="R5">
-        <v>31.88202824360658</v>
+        <v>1001.587352267088</v>
       </c>
       <c r="S5">
-        <v>0.07514809156213449</v>
+        <v>0.005768256286612402</v>
       </c>
       <c r="T5">
-        <v>0.07514809156213449</v>
+        <v>0.005768256286612402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.302151458227229</v>
+        <v>0.9891043333333333</v>
       </c>
       <c r="H6">
-        <v>0.302151458227229</v>
+        <v>2.967313</v>
       </c>
       <c r="I6">
-        <v>0.2389805466749125</v>
+        <v>0.01761131325912771</v>
       </c>
       <c r="J6">
-        <v>0.2389805466749125</v>
+        <v>0.01761131325912771</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>106.175494972697</v>
+        <v>106.314466</v>
       </c>
       <c r="N6">
-        <v>106.175494972697</v>
+        <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441663</v>
       </c>
       <c r="P6">
-        <v>0.3164160117964026</v>
+        <v>0.3094859589441664</v>
       </c>
       <c r="Q6">
-        <v>32.08108063399822</v>
+        <v>105.1560990166193</v>
       </c>
       <c r="R6">
-        <v>32.08108063399822</v>
+        <v>946.4048911495739</v>
       </c>
       <c r="S6">
-        <v>0.07561727147579987</v>
+        <v>0.005450454172267249</v>
       </c>
       <c r="T6">
-        <v>0.07561727147579987</v>
+        <v>0.005450454172267249</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9891043333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.967313</v>
+      </c>
+      <c r="I7">
+        <v>0.01761131325912771</v>
+      </c>
+      <c r="J7">
+        <v>0.01761131325912771</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N7">
+        <v>374.074966</v>
+      </c>
+      <c r="O7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P7">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q7">
+        <v>123.3330566207064</v>
+      </c>
+      <c r="R7">
+        <v>1109.997509586358</v>
+      </c>
+      <c r="S7">
+        <v>0.006392602800248053</v>
+      </c>
+      <c r="T7">
+        <v>0.006392602800248054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.3440333333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.0321</v>
+      </c>
+      <c r="I8">
+        <v>0.00612562153528991</v>
+      </c>
+      <c r="J8">
+        <v>0.006125621535289909</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>112.513392</v>
+      </c>
+      <c r="N8">
+        <v>337.540176</v>
+      </c>
+      <c r="O8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="P8">
+        <v>0.3275312977368564</v>
+      </c>
+      <c r="Q8">
+        <v>38.7083572944</v>
+      </c>
+      <c r="R8">
+        <v>348.3752156496</v>
+      </c>
+      <c r="S8">
+        <v>0.002006332770898339</v>
+      </c>
+      <c r="T8">
+        <v>0.002006332770898338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.302151458227229</v>
-      </c>
-      <c r="H7">
-        <v>0.302151458227229</v>
-      </c>
-      <c r="I7">
-        <v>0.2389805466749125</v>
-      </c>
-      <c r="J7">
-        <v>0.2389805466749125</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="N7">
-        <v>123.864437369458</v>
-      </c>
-      <c r="O7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="P7">
-        <v>0.3691312320788105</v>
-      </c>
-      <c r="Q7">
-        <v>37.42582037367701</v>
-      </c>
-      <c r="R7">
-        <v>37.42582037367701</v>
-      </c>
-      <c r="S7">
-        <v>0.08821518363697815</v>
-      </c>
-      <c r="T7">
-        <v>0.08821518363697815</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3440333333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.0321</v>
+      </c>
+      <c r="I9">
+        <v>0.00612562153528991</v>
+      </c>
+      <c r="J9">
+        <v>0.006125621535289909</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>106.314466</v>
+      </c>
+      <c r="N9">
+        <v>318.943398</v>
+      </c>
+      <c r="O9">
+        <v>0.3094859589441663</v>
+      </c>
+      <c r="P9">
+        <v>0.3094859589441664</v>
+      </c>
+      <c r="Q9">
+        <v>36.57572011953334</v>
+      </c>
+      <c r="R9">
+        <v>329.1814810758</v>
+      </c>
+      <c r="S9">
+        <v>0.001895793854978234</v>
+      </c>
+      <c r="T9">
+        <v>0.001895793854978234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3440333333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.0321</v>
+      </c>
+      <c r="I10">
+        <v>0.00612562153528991</v>
+      </c>
+      <c r="J10">
+        <v>0.006125621535289909</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>124.6916553333333</v>
+      </c>
+      <c r="N10">
+        <v>374.074966</v>
+      </c>
+      <c r="O10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="P10">
+        <v>0.3629827433189773</v>
+      </c>
+      <c r="Q10">
+        <v>42.89808582317779</v>
+      </c>
+      <c r="R10">
+        <v>386.0827724086</v>
+      </c>
+      <c r="S10">
+        <v>0.002223494909413337</v>
+      </c>
+      <c r="T10">
+        <v>0.002223494909413337</v>
       </c>
     </row>
   </sheetData>
